--- a/main/data/roman_to_int.xlsx
+++ b/main/data/roman_to_int.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.46100997924805</v>
+        <v>18.50795745849609</v>
       </c>
       <c r="D2" t="n">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.61898803710938</v>
+        <v>16.96395874023438</v>
       </c>
       <c r="D3" t="n">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.29807662963867</v>
+        <v>16.97492599487305</v>
       </c>
       <c r="D4" t="n">
-        <v>464</v>
+        <v>176</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.23704147338867</v>
+        <v>17.08006858825684</v>
       </c>
       <c r="D5" t="n">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.36697959899902</v>
+        <v>16.94798469543457</v>
       </c>
       <c r="D6" t="n">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/roman_to_int.xlsx
+++ b/main/data/roman_to_int.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.50795745849609</v>
+        <v>17.07792282104492</v>
       </c>
       <c r="D2" t="n">
         <v>259</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.96395874023438</v>
+        <v>16.32094383239746</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.97492599487305</v>
+        <v>16.08920097351074</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.08006858825684</v>
+        <v>15.9461498260498</v>
       </c>
       <c r="D5" t="n">
         <v>174</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.94798469543457</v>
+        <v>15.87390899658203</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>

--- a/main/data/roman_to_int.xlsx
+++ b/main/data/roman_to_int.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.07792282104492</v>
+        <v>23.82183074951172</v>
       </c>
       <c r="D2" t="n">
         <v>259</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.32094383239746</v>
+        <v>16.85309410095215</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.08920097351074</v>
+        <v>16.24298095703125</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.9461498260498</v>
+        <v>16.1902904510498</v>
       </c>
       <c r="D5" t="n">
         <v>174</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.87390899658203</v>
+        <v>16.45183563232422</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
